--- a/data/trans_orig/P14B32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F51773-7D42-4EB6-A0A5-E21355FAE243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F516E41-D0E0-4815-90FE-AE22E518DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48912057-56F3-4105-A82C-6661E2CADAE5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C363C918-6CF4-4A08-8D8D-E7465ADB1BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="133">
   <si>
     <t>Población cuya incontinencia urinaria le limita en 2012 (Tasa respuesta: 1,08%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>23,38%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
   </si>
   <si>
     <t>42,65%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>76,62%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,16 +147,19 @@
     <t>52,04%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>11,96%</t>
@@ -171,16 +174,19 @@
     <t>47,96%</t>
   </si>
   <si>
-    <t>84,18%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -201,55 +207,55 @@
     <t>49,08%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -270,88 +276,94 @@
     <t>46,84%</t>
   </si>
   <si>
-    <t>27,64%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -375,55 +387,55 @@
     <t>60,01%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
 </sst>
 </file>
@@ -835,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47356C-4D6A-40DF-90A2-F82CBF4D9BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470FB425-3DF8-4184-A6EC-2C3971432061}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1135,7 +1147,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -1144,13 +1156,13 @@
         <v>10847</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1165,13 +1177,13 @@
         <v>1030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1180,13 +1192,13 @@
         <v>3015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1195,13 +1207,13 @@
         <v>4044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1257,7 +1269,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1267,13 +1279,13 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1282,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1297,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,13 +1328,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1334,7 +1346,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -1349,7 +1361,7 @@
         <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -1365,13 +1377,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1418,13 +1430,13 @@
         <v>10624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -1433,13 +1445,13 @@
         <v>25520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -1448,13 +1460,13 @@
         <v>36144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1481,13 @@
         <v>11021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -1484,13 +1496,13 @@
         <v>30178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -1499,13 +1511,13 @@
         <v>41199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1573,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B84E47-C02D-4355-9445-1D80A591F269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BFE986-C5F7-4ACA-B1B7-8AF193FD1583}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,7 +1609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1704,13 +1716,13 @@
         <v>7594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -1719,13 +1731,13 @@
         <v>15737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -1734,13 +1746,13 @@
         <v>23331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1767,13 @@
         <v>4378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -1770,13 +1782,13 @@
         <v>17860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -1785,13 +1797,13 @@
         <v>22238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1871,10 @@
         <v>2917</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>34</v>
@@ -1874,13 +1886,13 @@
         <v>4212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1889,13 +1901,13 @@
         <v>7130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1922,13 @@
         <v>1729</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1925,13 +1937,13 @@
         <v>11160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1940,13 +1952,13 @@
         <v>12888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +2014,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2014,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2029,10 +2041,10 @@
         <v>1262</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>34</v>
@@ -2044,10 +2056,10 @@
         <v>1262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
@@ -2068,7 +2080,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2080,10 +2092,10 @@
         <v>1039</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>34</v>
@@ -2095,10 +2107,10 @@
         <v>1937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -2169,13 +2181,13 @@
         <v>10511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2184,13 +2196,13 @@
         <v>21211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -2199,13 +2211,13 @@
         <v>31722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2232,13 @@
         <v>7005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -2235,13 +2247,13 @@
         <v>30059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -2250,13 +2262,13 @@
         <v>37064</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,7 +2324,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B32-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F516E41-D0E0-4815-90FE-AE22E518DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAFF91A-02AB-410F-9EB4-C44AD82C4E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C363C918-6CF4-4A08-8D8D-E7465ADB1BD6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BD73292-9862-4BB6-9B34-AE6B9A727920}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>23,38%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
   </si>
   <si>
     <t>42,65%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>76,62%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>88,04%</t>
   </si>
   <si>
-    <t>43,41%</t>
+    <t>43,46%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,19 +147,19 @@
     <t>52,04%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>11,96%</t>
@@ -168,25 +168,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,59%</t>
+    <t>56,54%</t>
   </si>
   <si>
     <t>47,96%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -207,163 +207,163 @@
     <t>49,08%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya incontinencia urinaria le limita en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población cuya incontinencia urinaria le limita en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
   </si>
   <si>
     <t>36,57%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>62,79%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>19,21%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>37,21%</t>
   </si>
   <si>
-    <t>81,35%</t>
+    <t>80,79%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -387,55 +387,55 @@
     <t>60,01%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>46,12%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>53,88%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470FB425-3DF8-4184-A6EC-2C3971432061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4551FF-CBB2-43E8-A4BB-CA9238DC2F5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1592,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BFE986-C5F7-4ACA-B1B7-8AF193FD1583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3BA330-7F03-42D1-B07F-A3E07846B8D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
